--- a/PYTHON/04章/1_昭島店.xlsx
+++ b/PYTHON/04章/1_昭島店.xlsx
@@ -162,6 +162,144 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>折れ線グラフ</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>売上額</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'1_昭島店'!$D$4:$D$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>件数</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>売上額</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -674,7 +812,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>集計</t>
+          <t>売上グラフ</t>
         </is>
       </c>
     </row>
@@ -89432,5 +89570,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PYTHON/04章/1_昭島店.xlsx
+++ b/PYTHON/04章/1_昭島店.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data_CancelRank" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Data_AreaRank" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Data_DeliveryRank" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Data_TargetRank" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Data_Target_Daily" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
